--- a/Components/Jacdac_Pressure_Sensor_Maker_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_Maker_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Jacdac-Pressure-Sensor\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B43030-411F-4903-AB2A-593B6ACC5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB2B85-0373-433A-917E-74E3A6B52DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2145" windowWidth="25455" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="732" windowWidth="18840" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacdac-Pressure-Sensor_Maker" sheetId="1" r:id="rId1"/>
@@ -192,12 +192,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>C1,C4</t>
-  </si>
-  <si>
-    <t>C2,C5</t>
-  </si>
-  <si>
     <t>FB1</t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>478-1310-1-ND</t>
+  </si>
+  <si>
+    <t>C1,C4,C5</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -1181,24 +1181,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+    <col min="10" max="10" width="77.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1244,13 +1244,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1">
         <v>0.15</v>
@@ -1260,10 +1260,10 @@
         <v>0.3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1277,13 +1277,13 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1">
         <v>0.15</v>
@@ -1293,10 +1293,10 @@
         <v>0.15</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1310,13 +1310,13 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1">
         <v>0.15</v>
@@ -1326,10 +1326,10 @@
         <v>0.15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1472,16 +1472,16 @@
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H9" s="1">
         <v>10.89</v>
@@ -1491,76 +1491,76 @@
         <v>10.89</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1">
         <v>0.22</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1">
         <v>0.18</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1601,19 +1601,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1">
         <v>0.3</v>
@@ -1623,10 +1623,10 @@
         <v>0.3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1670,13 +1670,13 @@
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>46</v>
@@ -1689,16 +1689,16 @@
         <v>1.28</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="1">
         <f>SUM(I2:I15)</f>
-        <v>22.37</v>
+        <v>22.41</v>
       </c>
     </row>
   </sheetData>

--- a/Components/Jacdac_Pressure_Sensor_Maker_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_Maker_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB2B85-0373-433A-917E-74E3A6B52DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55C249-34FB-4751-A41D-E1B023D35591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="732" windowWidth="18840" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="510" windowWidth="11370" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacdac-Pressure-Sensor_Maker" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Index</t>
   </si>
@@ -165,15 +165,9 @@
     <t>BAT54S,235</t>
   </si>
   <si>
-    <t>D2,D3</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/broadcom-limited/HSMF-C114/1235344</t>
   </si>
   <si>
-    <t>TVS DIODE 5VWM 25VC SLP1006P2</t>
-  </si>
-  <si>
     <t>LED RGB DIFFUSED CHIP SMD</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>https://www.digikey.ca/en/products/detail/avx-corporation/08053C104KAT2A/1116281?</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>FB1</t>
   </si>
   <si>
@@ -222,9 +213,21 @@
     <t>800mA 1kR</t>
   </si>
   <si>
+    <t>https://www.digikey.ca/en/products/detail/kemet/C0603C330M5HAC7867/7947133</t>
+  </si>
+  <si>
+    <t>CAP CER 0603 33PF 50V ULTRA STAB</t>
+  </si>
+  <si>
     <t>33pF</t>
   </si>
   <si>
+    <t>C0603C330M5HAC7867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399-C0603C330M5HAC7867CT-ND </t>
+  </si>
+  <si>
     <t>RES 150 OHM 1% 1/8W 0805</t>
   </si>
   <si>
@@ -261,46 +264,28 @@
     <t xml:space="preserve">PRESSURE SENSOR </t>
   </si>
   <si>
+    <t>https://www.digikey.ca/en/products/detail/avx-corporation/0603YD105KAT2A/563359</t>
+  </si>
+  <si>
+    <t>0603YD105KAT2A</t>
+  </si>
+  <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>STS521050BL90</t>
-  </si>
-  <si>
-    <t>283-STS521050BL90CT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/eaton-electronics-division/STS521050BL90/13280502</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/CC0805KKX7R7BB105/2103103</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 16V X7R 0805</t>
-  </si>
-  <si>
-    <t>CC0805KKX7R7BB105</t>
-  </si>
-  <si>
-    <t>311-1365-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/avx-corporation/08055A330JAT2A/563420</t>
-  </si>
-  <si>
-    <t>CAP CER 33PF 50V C0G/NP0 0805</t>
-  </si>
-  <si>
-    <t>08055A330JAT2A</t>
-  </si>
-  <si>
-    <t>478-1310-1-ND</t>
-  </si>
-  <si>
-    <t>C1,C4,C5</t>
+    <t>CAP CER 1UF 16V X5R 0603</t>
+  </si>
+  <si>
+    <t>478-1249-1-ND</t>
+  </si>
+  <si>
+    <t>C4</t>
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t>C1,C3,C5</t>
   </si>
 </sst>
 </file>
@@ -814,7 +799,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -822,7 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1179,26 +1163,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.88671875" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1244,26 +1228,26 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H2" s="1">
         <v>0.15</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I15" si="0">H2*B2</f>
+        <f t="shared" ref="I2:I13" si="0">H2*B2</f>
         <v>0.3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1277,13 +1261,13 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1">
         <v>0.15</v>
@@ -1293,10 +1277,10 @@
         <v>0.15</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1310,13 +1294,13 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1">
         <v>0.15</v>
@@ -1326,10 +1310,10 @@
         <v>0.15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1362,7 +1346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1373,62 +1357,62 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6*B6</f>
+        <v>4.66</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H7" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.66</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.66</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1439,62 +1423,62 @@
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10.89</v>
+      </c>
+      <c r="I8" s="1">
+        <f>H8*B8</f>
+        <v>10.89</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>0.2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10.89</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>10.89</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1502,32 +1486,32 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1535,32 +1519,32 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1568,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -1586,14 +1570,14 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f>H12*B12</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1601,19 +1585,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1">
         <v>0.3</v>
@@ -1623,10 +1607,10 @@
         <v>0.3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1637,84 +1621,50 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1">
         <v>2.63</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
+        <f>H14*B14</f>
         <v>2.63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.28</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="4" t="s">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="1">
-        <f>SUM(I2:I15)</f>
-        <v>22.41</v>
+      <c r="I17" s="1">
+        <f>SUM(I2:I13)</f>
+        <v>18.340000000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{303FD325-93A2-4122-A17E-C111FE863494}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{303FD325-93A2-4122-A17E-C111FE863494}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
     <hyperlink ref="J5" r:id="rId3" xr:uid="{9E0D8D76-48CA-4E86-B954-83F584984FBF}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{D29A8DD9-A9DA-423A-89F6-1572B5E95308}"/>
-    <hyperlink ref="J15" r:id="rId5" xr:uid="{BE0278AA-8F15-453A-8705-82A5A09BACB2}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{5F3681DE-D292-44D4-9A84-E6BFB5A5DE92}"/>
-    <hyperlink ref="J13" r:id="rId8" xr:uid="{91D92F31-CA23-4FA3-AA47-2EA6A9956017}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{121F1F51-57F5-4FE9-9041-9EAA3A6F160B}"/>
-    <hyperlink ref="J3" r:id="rId10" xr:uid="{2074E78E-7951-40C0-BF60-DF4399090BDD}"/>
-    <hyperlink ref="J9" r:id="rId11" xr:uid="{70850A71-5622-4387-ADA1-C241627D2542}"/>
-    <hyperlink ref="J10" r:id="rId12" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{D29A8DD9-A9DA-423A-89F6-1572B5E95308}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
+    <hyperlink ref="J4" r:id="rId6" xr:uid="{5F3681DE-D292-44D4-9A84-E6BFB5A5DE92}"/>
+    <hyperlink ref="J13" r:id="rId7" xr:uid="{91D92F31-CA23-4FA3-AA47-2EA6A9956017}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{121F1F51-57F5-4FE9-9041-9EAA3A6F160B}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{2074E78E-7951-40C0-BF60-DF4399090BDD}"/>
+    <hyperlink ref="J8" r:id="rId10" xr:uid="{70850A71-5622-4387-ADA1-C241627D2542}"/>
+    <hyperlink ref="J10" r:id="rId11" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_Pressure_Sensor_Maker_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_Maker_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55C249-34FB-4751-A41D-E1B023D35591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5DB8B-DDEB-4D33-8BF0-0B42E102F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="510" windowWidth="11370" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacdac-Pressure-Sensor_Maker" sheetId="1" r:id="rId1"/>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,8 +1648,8 @@
         <v>8</v>
       </c>
       <c r="I17" s="1">
-        <f>SUM(I2:I13)</f>
-        <v>18.340000000000003</v>
+        <f>SUM(I2:I14)</f>
+        <v>20.970000000000002</v>
       </c>
     </row>
   </sheetData>
